--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -91,37 +91,28 @@
     <t>mongodb://localhost:27017/</t>
   </si>
   <si>
-    <t>MJBeta1</t>
-  </si>
-  <si>
-    <t>MJBeta2</t>
-  </si>
-  <si>
-    <t>MJBeta3</t>
-  </si>
-  <si>
-    <t>MJBeta1000(center)</t>
+    <t>Mini_1_Beta1</t>
+  </si>
+  <si>
+    <t>Mini_1_Beta2</t>
+  </si>
+  <si>
+    <t>Mini_1_Beta1000(center)</t>
   </si>
   <si>
     <t>#中心服</t>
   </si>
   <si>
-    <t>MJBeta1001(robot)</t>
+    <t>Mini_1_Beta1001(robot)</t>
   </si>
   <si>
     <t>#机器人</t>
   </si>
   <si>
-    <t>MJBeta1002(router)</t>
+    <t>Mini_1_Beta1002(router)</t>
   </si>
   <si>
     <t>路由区</t>
-  </si>
-  <si>
-    <t>MJBeta1011</t>
-  </si>
-  <si>
-    <t>版号区</t>
   </si>
 </sst>
 </file>
@@ -300,12 +291,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1128,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G12"/>
+  <dimension ref="C3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1217,86 +1208,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:7">
       <c r="C8" s="3">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="5">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="3">
-        <v>1002</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1002</v>
-      </c>
-      <c r="F11" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="3">
-        <v>1011</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1011</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
